--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_0_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_0_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.76000000000059</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>2.442391211499029e-08</v>
+        <v>1.049284770182624e-09</v>
       </c>
       <c r="I2" t="n">
-        <v>2.442391211499029e-08</v>
+        <v>1.049284770182624e-09</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>52.8623081547481</v>
+        <v>61.1627775250962</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[34.22334053686585, 71.50127577263035]</t>
+          <t>[44.851213955111746, 77.47434109508065]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>8.333704473173498e-07</v>
+        <v>1.557985296329889e-09</v>
       </c>
       <c r="O2" t="n">
-        <v>8.333704473173498e-07</v>
+        <v>1.557985296329889e-09</v>
       </c>
       <c r="P2" t="n">
-        <v>1.805079262422964</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.4151318259413488, 2.19502669890458]</t>
+          <t>[1.2138686329185786, 1.8679740102425795]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>4.454436819401053e-12</v>
+        <v>2.615019312202094e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>4.454436819401053e-12</v>
+        <v>2.615019312202094e-12</v>
       </c>
       <c r="T2" t="n">
-        <v>55.89636827849798</v>
+        <v>67.11900601826797</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[45.13971227867616, 66.6530242783198]</t>
+          <t>[56.16525113780611, 78.07276089872983]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.223465773136923e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="W2" t="n">
-        <v>1.223465773136923e-13</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="X2" t="n">
-        <v>18.3594794794799</v>
+        <v>19.48776776776822</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.76076076076114</v>
+        <v>18.1437837837842</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.95819819819865</v>
+        <v>20.83175175175223</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.76000000000059</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.116319729519091e-09</v>
+        <v>4.113947860151512e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>4.116319729519091e-09</v>
+        <v>4.113947860151512e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>51.58637092716909</v>
+        <v>54.9843348609207</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[33.76745441708444, 69.40528743725375]</t>
+          <t>[36.75985316153579, 73.2088165603056]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>5.562211113918636e-07</v>
+        <v>2.402335661511046e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>5.562211113918636e-07</v>
+        <v>2.402335661511046e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.10065808684327</v>
+        <v>1.490605523324887</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[0.748447499053424, 1.452868674633117]</t>
+          <t>[1.0880791372793475, 1.8931319093704264]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>1.141401821946886e-07</v>
+        <v>2.140251975646379e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>1.141401821946886e-07</v>
+        <v>2.140251975646379e-09</v>
       </c>
       <c r="T3" t="n">
-        <v>56.91951025008024</v>
+        <v>58.36480980165975</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.48128875326437, 66.35773174689609]</t>
+          <t>[47.034785305407596, 69.69483429791191]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.618705169903478e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>1.618705169903478e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>21.24748748748797</v>
+        <v>19.69453453453499</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.80348348348394</v>
+        <v>18.04040040040081</v>
       </c>
       <c r="Z3" t="n">
-        <v>22.69149149149201</v>
+        <v>21.34866866866916</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.76000000000059</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>3.398247446773084e-07</v>
+        <v>2.531863607657669e-12</v>
       </c>
       <c r="I4" t="n">
-        <v>3.398247446773084e-07</v>
+        <v>2.531863607657669e-12</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>49.47721173537903</v>
+        <v>64.35445729283565</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[28.740477730665383, 70.21394574009267]</t>
+          <t>[47.14507931080309, 81.56383527486821]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.75230408254734e-05</v>
+        <v>1.669731242159855e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>1.75230408254734e-05</v>
+        <v>1.669731242159855e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>0.735868549489501</v>
+        <v>0.6100790538502707</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.3333421634439624, 1.1383949355350396]</t>
+          <t>[0.35850006257180755, 0.8616580451287339]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>0.0006175057258730465</v>
+        <v>1.351329201737528e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0006175057258730465</v>
+        <v>1.351329201737528e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>54.96204645759857</v>
+        <v>58.59161875798431</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[44.36051154948984, 65.5635813657073]</t>
+          <t>[49.80039509722473, 67.38284241874388]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.318944953254686e-13</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1.318944953254686e-13</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>22.74306306306358</v>
+        <v>23.31295295295349</v>
       </c>
       <c r="Y4" t="n">
-        <v>21.09277277277326</v>
+        <v>22.27911911911962</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.39335335335391</v>
+        <v>24.34678678678735</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.76000000000059</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.506828040120922e-08</v>
+        <v>1.197147166653867e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>1.506828040120922e-08</v>
+        <v>1.197147166653867e-05</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>49.00234457007522</v>
+        <v>45.06753531122817</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[32.49373437171829, 65.51095476843216]</t>
+          <t>[23.791366086891472, 66.34370453556487]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>3.361100910925785e-07</v>
+        <v>0.0001008468872447654</v>
       </c>
       <c r="O5" t="n">
-        <v>3.361100910925785e-07</v>
+        <v>0.0001008468872447654</v>
       </c>
       <c r="P5" t="n">
-        <v>0.2956053147521924</v>
+        <v>0.4968685077749626</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[-0.04402632347373103, 0.6352369529781159]</t>
+          <t>[0.006289474781961957, 0.9874475407679633]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.08640981824220062</v>
+        <v>0.04725353075123873</v>
       </c>
       <c r="S5" t="n">
-        <v>0.08640981824220062</v>
+        <v>0.04725353075123873</v>
       </c>
       <c r="T5" t="n">
-        <v>52.42174138899456</v>
+        <v>49.10191928637165</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[43.37294645090684, 61.470536327082286]</t>
+          <t>[37.6835725560052, 60.52026601673809]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>3.836886364183556e-11</v>
       </c>
       <c r="W5" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>3.836886364183556e-11</v>
       </c>
       <c r="X5" t="n">
-        <v>24.54806806806863</v>
+        <v>23.77817817817873</v>
       </c>
       <c r="Y5" t="n">
-        <v>23.15563563563617</v>
+        <v>21.7622022022027</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.94050050050109</v>
+        <v>25.79415415415475</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.76000000000059</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.940576588310705e-10</v>
+        <v>3.331002584872067e-09</v>
       </c>
       <c r="I6" t="n">
-        <v>1.940576588310705e-10</v>
+        <v>3.331002584872067e-09</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>60.46321148271253</v>
+        <v>61.10164790641871</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[45.90601070803798, 75.02041225738708]</t>
+          <t>[44.53093650583533, 77.67235930700208]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.018685136244812e-10</v>
+        <v>2.384159092372329e-09</v>
       </c>
       <c r="O6" t="n">
-        <v>1.018685136244812e-10</v>
+        <v>2.384159092372329e-09</v>
       </c>
       <c r="P6" t="n">
-        <v>0.006289474781961069</v>
+        <v>0.03144737390980801</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.27044741562434726, 0.2830263651882694]</t>
+          <t>[-0.2704474156243464, 0.3333421634439624]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.9636920622196969</v>
+        <v>0.8347688676203104</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9636920622196969</v>
+        <v>0.8347688676203104</v>
       </c>
       <c r="T6" t="n">
-        <v>60.22498448394266</v>
+        <v>62.75166979219343</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[50.69368934542786, 69.75627962245747]</t>
+          <t>[52.075306485870286, 73.42803309851658]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="W6" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="X6" t="n">
-        <v>25.7342142142148</v>
+        <v>25.69077077077137</v>
       </c>
       <c r="Y6" t="n">
-        <v>24.5996396396402</v>
+        <v>24.45017017017074</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.8687887887894</v>
+        <v>26.93137137137199</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.76000000000059</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>5.020926132637271e-07</v>
+        <v>1.626779466690209e-08</v>
       </c>
       <c r="I7" t="n">
-        <v>5.020926132637271e-07</v>
+        <v>1.626779466690209e-08</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>50.28074247561984</v>
+        <v>56.94587460421737</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[27.9563764661397, 72.60510848509998]</t>
+          <t>[36.27952010421495, 77.6122291042198]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>4.231001064858297e-05</v>
+        <v>1.447086214190207e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>4.231001064858297e-05</v>
+        <v>1.447086214190207e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.5912106295043857</v>
+        <v>-0.6415264277600778</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.0188949146777713, -0.16352634433100022]</t>
+          <t>[-1.0063159651138474, -0.27673689040630833]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.00782058211447767</v>
+        <v>0.0009376536375877986</v>
       </c>
       <c r="S7" t="n">
-        <v>0.00782058211447767</v>
+        <v>0.0009376536375877986</v>
       </c>
       <c r="T7" t="n">
-        <v>57.3185600690955</v>
+        <v>66.52334666875868</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[45.997882458377745, 68.63923767981326]</t>
+          <t>[55.41361564958129, 77.63307768793607]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.804423360203145e-13</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="W7" t="n">
-        <v>2.804423360203145e-13</v>
+        <v>1.110223024625157e-15</v>
       </c>
       <c r="X7" t="n">
-        <v>2.423863863863918</v>
+        <v>2.636276276276337</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.6704304304304436</v>
+        <v>1.137217217217245</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.177297297297392</v>
+        <v>4.13533533533543</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.76000000000059</v>
+        <v>25.8200000000006</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>1.134067284525031e-08</v>
+        <v>2.526061582130978e-10</v>
       </c>
       <c r="I8" t="n">
-        <v>1.134067284525031e-08</v>
+        <v>2.526061582130978e-10</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>55.08075274509988</v>
+        <v>52.13223070074569</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[34.30224310027508, 75.85926238992468]</t>
+          <t>[35.03731329129526, 69.22714811019613]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>2.951759933145226e-06</v>
+        <v>1.920086545315058e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>2.951759933145226e-06</v>
+        <v>1.920086545315058e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.8427896207828471</v>
+        <v>-0.9937370155499243</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.2075791581366175, -0.47800008342907674]</t>
+          <t>[-1.3207897042119248, -0.6666843268879239]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.890112331987993e-05</v>
+        <v>2.072936433616945e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>2.890112331987993e-05</v>
+        <v>2.072936433616945e-07</v>
       </c>
       <c r="T8" t="n">
-        <v>64.88790930163016</v>
+        <v>50.11537211740885</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[54.17902412114996, 75.59679448211037]</t>
+          <t>[41.24844618378312, 58.98229805103457]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>7.771561172376096e-15</v>
       </c>
       <c r="W8" t="n">
-        <v>6.661338147750939e-16</v>
+        <v>7.771561172376096e-15</v>
       </c>
       <c r="X8" t="n">
-        <v>3.455295295295372</v>
+        <v>4.08364364364374</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.959719719719759</v>
+        <v>2.739659659659725</v>
       </c>
       <c r="Z8" t="n">
-        <v>4.950870870870984</v>
+        <v>5.427627627627754</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.40000000000038</v>
+        <v>24.80000000000044</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>2.79482181841928e-09</v>
+        <v>9.698369238808624e-07</v>
       </c>
       <c r="I9" t="n">
-        <v>2.79482181841928e-09</v>
+        <v>9.698369238808624e-07</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>53.80823781863987</v>
+        <v>47.93625960279892</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[38.703650231270984, 68.91282540600875]</t>
+          <t>[28.99608756737635, 66.87643163822149]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.609934738970423e-09</v>
+        <v>6.643167265174554e-06</v>
       </c>
       <c r="O9" t="n">
-        <v>5.609934738970423e-09</v>
+        <v>6.643167265174554e-06</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.522052897234695</v>
+        <v>-1.333368653775848</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.8491055858966963, -1.1950002085726936]</t>
+          <t>[-1.7987897876410024, -0.8679475199106932]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>3.793854119749085e-12</v>
+        <v>6.842369264514758e-07</v>
       </c>
       <c r="S9" t="n">
-        <v>3.793854119749085e-12</v>
+        <v>6.842369264514758e-07</v>
       </c>
       <c r="T9" t="n">
-        <v>54.19229684282016</v>
+        <v>50.39389331197469</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[44.45782933026043, 63.926764355379895]</t>
+          <t>[39.1655766483136, 61.62220997563578]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.265654248072678e-14</v>
+        <v>1.11441966765824e-11</v>
       </c>
       <c r="W9" t="n">
-        <v>1.265654248072678e-14</v>
+        <v>1.11441966765824e-11</v>
       </c>
       <c r="X9" t="n">
-        <v>5.910710710710802</v>
+        <v>5.262862862862956</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.64064064064071</v>
+        <v>3.425825825825886</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.180780780780895</v>
+        <v>7.099899899900026</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.40000000000038</v>
+        <v>24.80000000000044</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.292134838171144e-05</v>
+        <v>2.676225741016225e-08</v>
       </c>
       <c r="I10" t="n">
-        <v>1.292134838171144e-05</v>
+        <v>2.676225741016225e-08</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>46.42338724288667</v>
+        <v>55.78083033352755</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[27.080670415865157, 65.76610406990818]</t>
+          <t>[38.92215239352072, 72.63950827353439]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.595751966565473e-05</v>
+        <v>3.213507882016131e-08</v>
       </c>
       <c r="O10" t="n">
-        <v>1.595751966565473e-05</v>
+        <v>3.213507882016131e-08</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.559789745926464</v>
+        <v>-1.572368695490387</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-2.0881056276112346, -1.0314738642416934]</t>
+          <t>[-1.9497371824080805, -1.1950002085726936]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.74996014240736e-07</v>
+        <v>9.32867116887337e-11</v>
       </c>
       <c r="S10" t="n">
-        <v>3.74996014240736e-07</v>
+        <v>9.32867116887337e-11</v>
       </c>
       <c r="T10" t="n">
-        <v>59.29018015063964</v>
+        <v>52.11831158006915</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[46.96586418501587, 71.61449611626341]</t>
+          <t>[40.99032502244504, 63.246298137693266]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>1.383781977892795e-12</v>
+        <v>3.132161197072492e-12</v>
       </c>
       <c r="W10" t="n">
-        <v>1.383781977892795e-12</v>
+        <v>3.132161197072492e-12</v>
       </c>
       <c r="X10" t="n">
-        <v>6.057257257257351</v>
+        <v>6.206206206206318</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.005605605605666</v>
+        <v>4.7167167167168</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.108908908909036</v>
+        <v>7.695695695695836</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.40000000000038</v>
+        <v>24.80000000000044</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>5.226241661659969e-11</v>
+        <v>1.002289251594846e-09</v>
       </c>
       <c r="I11" t="n">
-        <v>5.226241661659969e-11</v>
+        <v>1.002289251594846e-09</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>54.98030550140531</v>
+        <v>58.21721892863206</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[42.06294135326392, 67.8976696495467]</t>
+          <t>[42.680441165953525, 73.7539966913106]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>5.135403213785139e-11</v>
+        <v>1.585836795214846e-09</v>
       </c>
       <c r="O11" t="n">
-        <v>5.135403213785139e-11</v>
+        <v>1.585836795214846e-09</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.559789745926464</v>
+        <v>-1.509473947670771</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.8365266363327724, -1.2830528555201557]</t>
+          <t>[-1.8239476867688484, -1.1950002085726936]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>1.482813871689359e-12</v>
       </c>
       <c r="S11" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>1.482813871689359e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>56.19811135515433</v>
+        <v>64.09515611942719</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[47.579279143458436, 64.81694356685023]</t>
+          <t>[53.871008394049, 74.31930384480538]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>2.220446049250313e-16</v>
       </c>
       <c r="X11" t="n">
-        <v>6.057257257257351</v>
+        <v>5.957957957958062</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.982582582582659</v>
+        <v>4.716716716716799</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.131931931932043</v>
+        <v>7.199199199199325</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_0_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_0_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>25.8200000000006</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.049284770182624e-09</v>
+        <v>1.18716148023168e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>1.049284770182624e-09</v>
+        <v>1.18716148023168e-12</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>61.1627775250962</v>
+        <v>62.68850233835404</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[44.851213955111746, 77.47434109508065]</t>
+          <t>[48.73987927255371, 76.63712540415438]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.557985296329889e-09</v>
+        <v>1.070610267106531e-11</v>
       </c>
       <c r="O2" t="n">
-        <v>1.557985296329889e-09</v>
+        <v>1.070610267106531e-11</v>
       </c>
       <c r="P2" t="n">
-        <v>1.540921321580579</v>
+        <v>1.679289766783733</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.2138686329185786, 1.8679740102425795]</t>
+          <t>[1.415131825941347, 1.9434477076261194]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.615019312202094e-12</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>2.615019312202094e-12</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>67.11900601826797</v>
+        <v>61.03965635091214</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[56.16525113780611, 78.07276089872983]</t>
+          <t>[52.07453944473636, 70.00477325708792]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>19.48776776776822</v>
+        <v>18.99243243243288</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.1437837837842</v>
+        <v>17.90270270270312</v>
       </c>
       <c r="Z2" t="n">
-        <v>20.83175175175223</v>
+        <v>20.08216216216264</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.8200000000006</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.113947860151512e-08</v>
+        <v>2.864375403532904e-14</v>
       </c>
       <c r="I3" t="n">
-        <v>4.113947860151512e-08</v>
+        <v>2.864375403532904e-14</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>54.9843348609207</v>
+        <v>66.54242272978284</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[36.75985316153579, 73.2088165603056]</t>
+          <t>[51.234491616512614, 81.85035384305307]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.402335661511046e-07</v>
+        <v>2.818278943550467e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>2.402335661511046e-07</v>
+        <v>2.818278943550467e-11</v>
       </c>
       <c r="P3" t="n">
-        <v>1.490605523324887</v>
+        <v>1.125815985971117</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.0880791372793475, 1.8931319093704264]</t>
+          <t>[0.8868159442565782, 1.364816027685655]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.140251975646379e-09</v>
+        <v>2.632338791386246e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>2.140251975646379e-09</v>
+        <v>2.632338791386246e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>58.36480980165975</v>
+        <v>55.69523815597715</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[47.034785305407596, 69.69483429791191]</t>
+          <t>[47.47633354286953, 63.91414276908477]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.618705169903478e-13</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1.618705169903478e-13</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>19.69453453453499</v>
+        <v>21.27567567567618</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.04040040040081</v>
+        <v>20.28972972973022</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.34866866866916</v>
+        <v>22.26162162162215</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>25.8200000000006</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.531863607657669e-12</v>
+        <v>2.232940497837177e-06</v>
       </c>
       <c r="I4" t="n">
-        <v>2.531863607657669e-12</v>
+        <v>2.232940497837177e-06</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>64.35445729283565</v>
+        <v>42.55556219701887</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[47.14507931080309, 81.56383527486821]</t>
+          <t>[23.49098258415745, 61.620141809880295]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.669731242159855e-09</v>
+        <v>4.824595927543918e-05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.669731242159855e-09</v>
+        <v>4.824595927543918e-05</v>
       </c>
       <c r="P4" t="n">
-        <v>0.6100790538502707</v>
+        <v>0.9371317425122703</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0.35850006257180755, 0.8616580451287339]</t>
+          <t>[0.4842895582110396, 1.389973926813501]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>1.351329201737528e-05</v>
+        <v>0.0001377141708702734</v>
       </c>
       <c r="S4" t="n">
-        <v>1.351329201737528e-05</v>
+        <v>0.0001377141708702734</v>
       </c>
       <c r="T4" t="n">
-        <v>58.59161875798431</v>
+        <v>52.42842965709742</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[49.80039509722473, 67.38284241874388]</t>
+          <t>[42.302942162422774, 62.553917151772076]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.374456104485944e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.374456104485944e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>23.31295295295349</v>
+        <v>22.05405405405457</v>
       </c>
       <c r="Y4" t="n">
-        <v>22.27911911911962</v>
+        <v>20.18594594594643</v>
       </c>
       <c r="Z4" t="n">
-        <v>24.34678678678735</v>
+        <v>23.92216216216272</v>
       </c>
     </row>
     <row r="5">
@@ -823,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.8200000000006</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.197147166653867e-05</v>
+        <v>1.630053859669189e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>1.197147166653867e-05</v>
+        <v>1.630053859669189e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>45.06753531122817</v>
+        <v>56.84376414273162</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[23.791366086891472, 66.34370453556487]</t>
+          <t>[36.15255637674852, 77.53497190871471]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001008468872447654</v>
+        <v>1.530914511826964e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001008468872447654</v>
+        <v>1.530914511826964e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>0.4968685077749626</v>
+        <v>0.2452895164965003</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0.006289474781961957, 0.9874475407679633]</t>
+          <t>[-0.14465791998511612, 0.6352369529781168]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>0.04725353075123873</v>
+        <v>0.2116962057249798</v>
       </c>
       <c r="S5" t="n">
-        <v>0.04725353075123873</v>
+        <v>0.2116962057249798</v>
       </c>
       <c r="T5" t="n">
-        <v>49.10191928637165</v>
+        <v>58.52544171879651</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[37.6835725560052, 60.52026601673809]</t>
+          <t>[46.94914597800978, 70.10173745958325]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>3.836886364183556e-11</v>
+        <v>2.942091015256665e-13</v>
       </c>
       <c r="W5" t="n">
-        <v>3.836886364183556e-11</v>
+        <v>2.942091015256665e-13</v>
       </c>
       <c r="X5" t="n">
-        <v>23.77817817817873</v>
+        <v>24.9081081081087</v>
       </c>
       <c r="Y5" t="n">
-        <v>21.7622022022027</v>
+        <v>23.29945945946001</v>
       </c>
       <c r="Z5" t="n">
-        <v>25.79415415415475</v>
+        <v>26.51675675675738</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>25.8200000000006</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>3.331002584872067e-09</v>
+        <v>5.946681191915104e-08</v>
       </c>
       <c r="I6" t="n">
-        <v>3.331002584872067e-09</v>
+        <v>5.946681191915104e-08</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>61.10164790641871</v>
+        <v>59.13400590163701</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[44.53093650583533, 77.67235930700208]</t>
+          <t>[39.28788234534967, 78.98012945792435]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>2.384159092372329e-09</v>
+        <v>3.108825867847997e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>2.384159092372329e-09</v>
+        <v>3.108825867847997e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>0.03144737390980801</v>
+        <v>-0.1257894956392311</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[-0.2704474156243464, 0.3333421634439624]</t>
+          <t>[-0.49057903299300065, 0.23900004171453837]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>0.8347688676203104</v>
+        <v>0.4909275704047049</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8347688676203104</v>
+        <v>0.4909275704047049</v>
       </c>
       <c r="T6" t="n">
-        <v>62.75166979219343</v>
+        <v>53.4111130306671</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[52.075306485870286, 73.42803309851658]</t>
+          <t>[41.71530630589602, 65.10691975543818]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>6.675326957861216e-12</v>
       </c>
       <c r="W6" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>6.675326957861216e-12</v>
       </c>
       <c r="X6" t="n">
-        <v>25.69077077077137</v>
+        <v>0.5189189189189349</v>
       </c>
       <c r="Y6" t="n">
-        <v>24.45017017017074</v>
+        <v>-0.9859459459459645</v>
       </c>
       <c r="Z6" t="n">
-        <v>26.93137137137199</v>
+        <v>2.023783783783834</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.8200000000006</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.626779466690209e-08</v>
+        <v>6.068090474542487e-11</v>
       </c>
       <c r="I7" t="n">
-        <v>1.626779466690209e-08</v>
+        <v>6.068090474542487e-11</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>56.94587460421737</v>
+        <v>68.28545467563436</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[36.27952010421495, 77.6122291042198]</t>
+          <t>[47.29707370201618, 89.27383564925253]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.447086214190207e-06</v>
+        <v>4.703854439291888e-08</v>
       </c>
       <c r="O7" t="n">
-        <v>1.447086214190207e-06</v>
+        <v>4.703854439291888e-08</v>
       </c>
       <c r="P7" t="n">
-        <v>-0.6415264277600778</v>
+        <v>-0.5534737808126167</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[-1.0063159651138474, -0.27673689040630833]</t>
+          <t>[-0.8679475199106932, -0.23900004171454015]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>0.0009376536375877986</v>
+        <v>0.0009299784203244954</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0009376536375877986</v>
+        <v>0.0009299784203244954</v>
       </c>
       <c r="T7" t="n">
-        <v>66.52334666875868</v>
+        <v>60.39827167865454</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[55.41361564958129, 77.63307768793607]</t>
+          <t>[49.62612116642323, 71.17042219088584]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>9.992007221626409e-15</v>
       </c>
       <c r="W7" t="n">
-        <v>1.110223024625157e-15</v>
+        <v>9.992007221626409e-15</v>
       </c>
       <c r="X7" t="n">
-        <v>2.636276276276337</v>
+        <v>2.283243243243302</v>
       </c>
       <c r="Y7" t="n">
-        <v>1.137217217217245</v>
+        <v>0.9859459459459774</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.13533533533543</v>
+        <v>3.580540540540626</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>25.8200000000006</v>
+        <v>25.92000000000061</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.526061582130978e-10</v>
+        <v>1.296631024771955e-09</v>
       </c>
       <c r="I8" t="n">
-        <v>2.526061582130978e-10</v>
+        <v>1.296631024771955e-09</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>52.13223070074569</v>
+        <v>55.78794855417841</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[35.03731329129526, 69.22714811019613]</t>
+          <t>[36.819640966504764, 74.75625614185206]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>1.920086545315058e-07</v>
+        <v>4.052176052482537e-07</v>
       </c>
       <c r="O8" t="n">
-        <v>1.920086545315058e-07</v>
+        <v>4.052176052482537e-07</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.9937370155499243</v>
+        <v>-1.157263359880925</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[-1.3207897042119248, -0.6666843268879239]</t>
+          <t>[-1.509473947670771, -0.8050527720910781]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>2.072936433616945e-07</v>
+        <v>3.76630475695805e-08</v>
       </c>
       <c r="S8" t="n">
-        <v>2.072936433616945e-07</v>
+        <v>3.76630475695805e-08</v>
       </c>
       <c r="T8" t="n">
-        <v>50.11537211740885</v>
+        <v>53.77137448662808</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[41.24844618378312, 58.98229805103457]</t>
+          <t>[43.62556146777667, 63.91718750547948]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>7.771561172376096e-15</v>
+        <v>6.483702463810914e-14</v>
       </c>
       <c r="W8" t="n">
-        <v>7.771561172376096e-15</v>
+        <v>6.483702463810914e-14</v>
       </c>
       <c r="X8" t="n">
-        <v>4.08364364364374</v>
+        <v>4.774054054054165</v>
       </c>
       <c r="Y8" t="n">
-        <v>2.739659659659725</v>
+        <v>3.321081081081158</v>
       </c>
       <c r="Z8" t="n">
-        <v>5.427627627627754</v>
+        <v>6.227027027027172</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>24.80000000000044</v>
+        <v>25.05000000000048</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>9.698369238808624e-07</v>
+        <v>1.750696958957576e-06</v>
       </c>
       <c r="I9" t="n">
-        <v>9.698369238808624e-07</v>
+        <v>1.750696958957576e-06</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>47.93625960279892</v>
+        <v>41.59914811917139</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[28.99608756737635, 66.87643163822149]</t>
+          <t>[24.20966203788852, 58.98863420045426]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>6.643167265174554e-06</v>
+        <v>1.681210394055555e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>6.643167265174554e-06</v>
+        <v>1.681210394055555e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>-1.333368653775848</v>
+        <v>-1.232737057264464</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[-1.7987897876410024, -0.8679475199106932]</t>
+          <t>[-1.7107371406935412, -0.754736973835386]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>6.842369264514758e-07</v>
+        <v>4.804868412477958e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>6.842369264514758e-07</v>
+        <v>4.804868412477958e-06</v>
       </c>
       <c r="T9" t="n">
-        <v>50.39389331197469</v>
+        <v>58.95896270931165</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[39.1655766483136, 61.62220997563578]</t>
+          <t>[48.88275600973891, 69.03516940888439]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>1.11441966765824e-11</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="W9" t="n">
-        <v>1.11441966765824e-11</v>
+        <v>2.442490654175344e-15</v>
       </c>
       <c r="X9" t="n">
-        <v>5.262862862862956</v>
+        <v>4.914714714714808</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.425825825825886</v>
+        <v>3.009009009009066</v>
       </c>
       <c r="Z9" t="n">
-        <v>7.099899899900026</v>
+        <v>6.82042042042055</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.80000000000044</v>
+        <v>25.05000000000048</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.676225741016225e-08</v>
+        <v>2.332513149294613e-08</v>
       </c>
       <c r="I10" t="n">
-        <v>2.676225741016225e-08</v>
+        <v>2.332513149294613e-08</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>55.78083033352755</v>
+        <v>53.94058084917795</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[38.92215239352072, 72.63950827353439]</t>
+          <t>[36.762863853765964, 71.11829784458993]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.213507882016131e-08</v>
+        <v>1.028146536796726e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>3.213507882016131e-08</v>
+        <v>1.028146536796726e-07</v>
       </c>
       <c r="P10" t="n">
-        <v>-1.572368695490387</v>
+        <v>-1.459158149415079</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[-1.9497371824080805, -1.1950002085726936]</t>
+          <t>[-1.8365266363327715, -1.0817896624973864]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>9.32867116887337e-11</v>
+        <v>7.030107607164382e-10</v>
       </c>
       <c r="S10" t="n">
-        <v>9.32867116887337e-11</v>
+        <v>7.030107607164382e-10</v>
       </c>
       <c r="T10" t="n">
-        <v>52.11831158006915</v>
+        <v>53.79398437599245</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[40.99032502244504, 63.246298137693266]</t>
+          <t>[43.02845420292145, 64.55951454906345]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>3.132161197072492e-12</v>
+        <v>4.2543746303636e-13</v>
       </c>
       <c r="W10" t="n">
-        <v>3.132161197072492e-12</v>
+        <v>4.2543746303636e-13</v>
       </c>
       <c r="X10" t="n">
-        <v>6.206206206206318</v>
+        <v>5.817417417417527</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.7167167167168</v>
+        <v>4.312912912912995</v>
       </c>
       <c r="Z10" t="n">
-        <v>7.695695695695836</v>
+        <v>7.321921921922059</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>24.80000000000044</v>
+        <v>25.05000000000048</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>1.002289251594846e-09</v>
+        <v>5.600492086199615e-06</v>
       </c>
       <c r="I11" t="n">
-        <v>1.002289251594846e-09</v>
+        <v>5.600492086199615e-06</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>58.21721892863206</v>
+        <v>48.79929821343715</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[42.680441165953525, 73.7539966913106]</t>
+          <t>[29.36875141619805, 68.22984501067626]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>1.585836795214846e-09</v>
+        <v>7.57241460735969e-06</v>
       </c>
       <c r="O11" t="n">
-        <v>1.585836795214846e-09</v>
+        <v>7.57241460735969e-06</v>
       </c>
       <c r="P11" t="n">
-        <v>-1.509473947670771</v>
+        <v>-1.572368695490387</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[-1.8239476867688484, -1.1950002085726936]</t>
+          <t>[-2.0629477284833877, -1.0817896624973864]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.482813871689359e-12</v>
+        <v>6.566796417750709e-08</v>
       </c>
       <c r="S11" t="n">
-        <v>1.482813871689359e-12</v>
+        <v>6.566796417750709e-08</v>
       </c>
       <c r="T11" t="n">
-        <v>64.09515611942719</v>
+        <v>61.6465455319056</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[53.871008394049, 74.31930384480538]</t>
+          <t>[49.10256356080707, 74.19052750300413]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>7.158718062783009e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>2.220446049250313e-16</v>
+        <v>7.158718062783009e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>5.957957957958062</v>
+        <v>6.26876876876889</v>
       </c>
       <c r="Y11" t="n">
-        <v>4.716716716716799</v>
+        <v>4.312912912912997</v>
       </c>
       <c r="Z11" t="n">
-        <v>7.199199199199325</v>
+        <v>8.224624624624782</v>
       </c>
     </row>
   </sheetData>
